--- a/reports graph.xlsx
+++ b/reports graph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaofeizheng/Desktop/Navigation_DRL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C898189-715B-834A-8916-7503F0E496A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CF3DEB-B1B5-FC48-BC97-42EA87A0712E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="3" xr2:uid="{331F2768-E66E-5C4E-87C6-70F391B717F3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{331F2768-E66E-5C4E-87C6-70F391B717F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -307,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -327,11 +327,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1820,19 +1829,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{64C6EB60-1857-164F-A37F-BC40480BD79D}" name="Table1" displayName="Table1" ref="A1:E8" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{64C6EB60-1857-164F-A37F-BC40480BD79D}" name="Table1" displayName="Table1" ref="A1:E8" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <autoFilter ref="A1:E8" xr:uid="{D7C20E3A-54AD-274E-A012-F08431E26A18}"/>
   <sortState ref="A2:E8">
     <sortCondition ref="A1:A8"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{DA1E7256-C4D4-074A-931C-2E4A649A7640}" name="date" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{1061C20D-9FC0-7E45-B0AD-93E65D124C5E}" name="posted date" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{94F33B1F-9297-F54E-9B4B-28917833DDD0}" name="item" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{C40C9450-D10A-0C40-B68A-AE53260748C9}" name="category" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{34A77F31-FFE7-F945-82C0-39E3F6835773}" name="amount" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{DA1E7256-C4D4-074A-931C-2E4A649A7640}" name="date" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{1061C20D-9FC0-7E45-B0AD-93E65D124C5E}" name="posted date" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{94F33B1F-9297-F54E-9B4B-28917833DDD0}" name="item" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{C40C9450-D10A-0C40-B68A-AE53260748C9}" name="category" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{34A77F31-FFE7-F945-82C0-39E3F6835773}" name="amount" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{061155E4-5019-7B40-AE2A-E80C1F5729E1}" name="Table2" displayName="Table2" ref="A1:F21" totalsRowShown="0" headerRowDxfId="0">
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{2605BC80-0C47-1D4B-BA4B-715FB072C263}" name="Episode"/>
+    <tableColumn id="2" xr3:uid="{90E4B55F-745A-9344-B405-11A4CBAC41EA}" name="DQN + Replay score"/>
+    <tableColumn id="3" xr3:uid="{82E91248-10BD-F44F-B7B5-BC3E2156B7A4}" name="DDQN + Replay score"/>
+    <tableColumn id="4" xr3:uid="{10F05E60-673B-4E40-B2D9-463CC6D8A9BB}" name="DQN + PER_ReplayBuffer score"/>
+    <tableColumn id="5" xr3:uid="{39EB0F1A-13C4-F54E-BADB-11D4AC37FBC9}" name="DDQN + PER_ReplayBuffer score">
+      <calculatedColumnFormula>VLOOKUP(A2, Sheet3!A:B, 2,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{42405FAB-568C-9F4B-AAE4-D90CA5A32B41}" name="baseline"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2297,33 +2322,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E9762F-D5EC-404A-BE4F-376CFE091522}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.5" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="5" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F1" s="10" t="s">
@@ -2796,8 +2820,21 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:E21">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -14995,7 +15032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7C8C25-DB4B-534D-910D-2395E9EC8431}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>

--- a/reports graph.xlsx
+++ b/reports graph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaofeizheng/Desktop/Navigation_DRL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FAC129F-5850-D041-97CB-44327DC1AF6F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C34532-D0C4-1D4B-9CD2-9A6B614BC281}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="460" windowWidth="24580" windowHeight="15540" activeTab="1" xr2:uid="{331F2768-E66E-5C4E-87C6-70F391B717F3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{331F2768-E66E-5C4E-87C6-70F391B717F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2455,7 +2455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5BF059-779F-3140-852D-1695052BE5BB}">
   <dimension ref="A1:I3046"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3054" sqref="D3054"/>
     </sheetView>
   </sheetViews>
@@ -79381,8 +79381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E9762F-D5EC-404A-BE4F-376CFE091522}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -79940,12 +79940,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:E21">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F21">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
